--- a/results/results_overview/Overview_All.xlsx
+++ b/results/results_overview/Overview_All.xlsx
@@ -5,10 +5,10 @@
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lisabeinborn/Research/tokenization/results/overview/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lisabeinborn/Research/code/cogtok/results/results_overview/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{B92D0B48-CB3C-6145-A979-1ED81F345B2A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{CB03B4EC-443E-294A-9942-657F700E231F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="TestPlots" sheetId="3" r:id="rId1"/>
     <sheet name="Words" sheetId="1" r:id="rId2"/>
     <sheet name="Non-Words" sheetId="2" r:id="rId3"/>
+    <sheet name="Num_Splits" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="310" uniqueCount="33">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="534" uniqueCount="38">
   <si>
     <t>Model</t>
   </si>
@@ -126,6 +127,21 @@
   </si>
   <si>
     <t>Chunkability</t>
+  </si>
+  <si>
+    <t>Metric</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>Vocab Size</t>
+  </si>
+  <si>
+    <t>Correlation</t>
   </si>
 </sst>
 </file>
@@ -616,7 +632,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -635,6 +651,9 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -4004,6 +4023,812 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0%">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65%"/>
+                    <a:lumOff val="35%"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>NumSplits</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0%">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65%"/>
+                  <a:lumOff val="35%"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>TestPlots!$B$75</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>TestPlots!$A$76:$A$91</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Accuracy</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Reading Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>TestPlots!$B$76:$B$91</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-58BE-7343-9694-F19B560EBEEF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>TestPlots!$C$75</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>TestPlots!$A$76:$A$91</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Accuracy</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Reading Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>TestPlots!$C$76:$C$91</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-58BE-7343-9694-F19B560EBEEF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>TestPlots!$D$75</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BPE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>TestPlots!$A$76:$A$91</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Accuracy</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Reading Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>TestPlots!$D$76:$D$91</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>-0.44</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.36</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.38</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.03</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.42</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-58BE-7343-9694-F19B560EBEEF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>TestPlots!$E$75</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>UNI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>TestPlots!$A$76:$A$91</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Accuracy</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Reading Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>TestPlots!$E$76:$E$91</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>-0.38</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.34</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.33</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.41</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.16</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-58BE-7343-9694-F19B560EBEEF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>TestPlots!$F$75</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>WPC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75%"/>
+                        <a:lumOff val="25%"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35%"/>
+                          <a:lumOff val="65%"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>TestPlots!$A$76:$A$91</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Accuracy</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Reading Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>TestPlots!$F$76:$F$91</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>-0.45</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.38</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.38</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-58BE-7343-9694-F19B560EBEEF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="241556144"/>
+        <c:axId val="744696576"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="241556144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15%"/>
+                <a:lumOff val="85%"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65%"/>
+                    <a:lumOff val="35%"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="744696576"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="744696576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15%"/>
+                  <a:lumOff val="85%"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65%"/>
+                    <a:lumOff val="35%"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="241556144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65%"/>
+                  <a:lumOff val="35%"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15%"/>
+          <a:lumOff val="85%"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4809,6 +5634,46 @@
 </file>
 
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80%"/>
+    <a:lumOff val="20%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60%"/>
+    <a:lumOff val="40%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70%"/>
+    <a:lumOff val="30%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50%"/>
+    <a:lumOff val="50%"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -6860,6 +7725,509 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75%"/>
+        <a:lumOff val="25%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25%"/>
+            <a:lumOff val="75%"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65%"/>
+          <a:lumOff val="35%"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65%"/>
+            <a:lumOff val="35%"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35%"/>
+            <a:lumOff val="65%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65%"/>
+            <a:lumOff val="35%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5%"/>
+            <a:lumOff val="95%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75%"/>
+            <a:lumOff val="25%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35%"/>
+            <a:lumOff val="65%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35%"/>
+            <a:lumOff val="65%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0%"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main">
   <xdr:twoCellAnchor>
@@ -6972,16 +8340,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7001,6 +8369,44 @@
       <a:graphic>
         <a:graphicData uri="http://purl.oclc.org/ooxml/drawingml/chart">
           <c:chart xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FA85B61-FD98-AB40-B560-5D9B18B045B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://purl.oclc.org/ooxml/drawingml/chart">
+          <c:chart xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7347,10 +8753,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:T72"/>
+  <dimension ref="A1:T91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52:G68"/>
+    <sheetView tabSelected="1" topLeftCell="B49" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7954,6 +9360,9 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
       <c r="B29" t="s">
         <v>1</v>
       </c>
@@ -8593,11 +10002,296 @@
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B72" s="6"/>
     </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D75" t="s">
+        <v>8</v>
+      </c>
+      <c r="E75" t="s">
+        <v>7</v>
+      </c>
+      <c r="F75" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D76">
+        <v>-0.44</v>
+      </c>
+      <c r="E76">
+        <v>-0.38</v>
+      </c>
+      <c r="F76">
+        <v>-0.45</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77" s="7"/>
+      <c r="B77" s="7"/>
+      <c r="C77" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D77">
+        <v>-0.36</v>
+      </c>
+      <c r="E77">
+        <v>-0.34</v>
+      </c>
+      <c r="F77">
+        <v>-0.38</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78" s="7"/>
+      <c r="B78" s="7"/>
+      <c r="C78" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D78">
+        <v>-0.34</v>
+      </c>
+      <c r="E78">
+        <v>-0.33</v>
+      </c>
+      <c r="F78">
+        <v>-0.35</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A79" s="7"/>
+      <c r="B79" s="7"/>
+      <c r="C79" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D79" s="1">
+        <v>-0.38</v>
+      </c>
+      <c r="E79" s="1">
+        <v>-0.41</v>
+      </c>
+      <c r="F79" s="1">
+        <v>-0.38</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A80" s="7"/>
+      <c r="B80" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D80">
+        <v>0.18</v>
+      </c>
+      <c r="E80">
+        <v>0.2</v>
+      </c>
+      <c r="F80">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81" s="7"/>
+      <c r="B81" s="7"/>
+      <c r="C81" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D81">
+        <v>0.13</v>
+      </c>
+      <c r="E81">
+        <v>0.17</v>
+      </c>
+      <c r="F81">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" s="7"/>
+      <c r="B82" s="7"/>
+      <c r="C82" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D82">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="E82">
+        <v>0.25</v>
+      </c>
+      <c r="F82">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83" s="7"/>
+      <c r="B83" s="7"/>
+      <c r="C83" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D83">
+        <v>0.31</v>
+      </c>
+      <c r="E83">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="F83">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A84" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D84">
+        <v>0.5</v>
+      </c>
+      <c r="E84">
+        <v>0.41</v>
+      </c>
+      <c r="F84">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A85" s="7"/>
+      <c r="B85" s="7"/>
+      <c r="C85" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D85">
+        <v>0.45</v>
+      </c>
+      <c r="E85">
+        <v>0.44</v>
+      </c>
+      <c r="F85">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A86" s="7"/>
+      <c r="B86" s="7"/>
+      <c r="C86" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D86">
+        <v>0.5</v>
+      </c>
+      <c r="E86">
+        <v>0.41</v>
+      </c>
+      <c r="F86">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A87" s="7"/>
+      <c r="B87" s="7"/>
+      <c r="C87" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D87" s="1">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="E87" s="1">
+        <v>0.51</v>
+      </c>
+      <c r="F87" s="1">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A88" s="7"/>
+      <c r="B88" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D88">
+        <v>-0.1</v>
+      </c>
+      <c r="E88">
+        <v>-0.16</v>
+      </c>
+      <c r="F88">
+        <v>-0.13</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A89" s="7"/>
+      <c r="B89" s="7"/>
+      <c r="C89" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D89">
+        <v>-0.03</v>
+      </c>
+      <c r="E89">
+        <v>-0.13</v>
+      </c>
+      <c r="F89">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A90" s="7"/>
+      <c r="B90" s="7"/>
+      <c r="C90" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D90">
+        <v>0.06</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A91" s="7"/>
+      <c r="B91" s="7"/>
+      <c r="C91" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D91">
+        <v>0.42</v>
+      </c>
+      <c r="E91">
+        <v>0.32</v>
+      </c>
+      <c r="F91">
+        <v>0.4</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A51:F65">
     <sortCondition ref="B51:B65"/>
   </sortState>
-  <mergeCells count="7">
+  <mergeCells count="13">
+    <mergeCell ref="A76:A83"/>
+    <mergeCell ref="B76:B79"/>
+    <mergeCell ref="B80:B83"/>
+    <mergeCell ref="A84:A91"/>
+    <mergeCell ref="B84:B87"/>
+    <mergeCell ref="B88:B91"/>
     <mergeCell ref="B69:B72"/>
     <mergeCell ref="B53:B56"/>
     <mergeCell ref="B57:B60"/>
@@ -8616,7 +10310,7 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA40"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="A24" workbookViewId="0">
       <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
@@ -12550,4 +14244,999 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3989AAE-485D-094A-95C6-950F563090FD}">
+  <dimension ref="A1:F49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="5">
+        <v>50000</v>
+      </c>
+      <c r="F2">
+        <v>-0.44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="5">
+        <v>50000</v>
+      </c>
+      <c r="F3">
+        <v>-0.36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="5">
+        <v>50000</v>
+      </c>
+      <c r="F4">
+        <v>-0.34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="5">
+        <v>50000</v>
+      </c>
+      <c r="F5" s="1">
+        <v>-0.38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="5">
+        <v>50000</v>
+      </c>
+      <c r="F6">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="5">
+        <v>50000</v>
+      </c>
+      <c r="F7">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="5">
+        <v>50000</v>
+      </c>
+      <c r="F8">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="5">
+        <v>50000</v>
+      </c>
+      <c r="F9">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="5">
+        <v>50000</v>
+      </c>
+      <c r="F10">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="5">
+        <v>50000</v>
+      </c>
+      <c r="F11">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="5">
+        <v>50000</v>
+      </c>
+      <c r="F12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="5">
+        <v>50000</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="5">
+        <v>50000</v>
+      </c>
+      <c r="F14">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="5">
+        <v>50000</v>
+      </c>
+      <c r="F15">
+        <v>-0.03</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="5">
+        <v>50000</v>
+      </c>
+      <c r="F16">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="5">
+        <v>50000</v>
+      </c>
+      <c r="F17">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="5">
+        <v>50000</v>
+      </c>
+      <c r="F18">
+        <v>-0.38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="5">
+        <v>50000</v>
+      </c>
+      <c r="F19">
+        <v>-0.34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="5">
+        <v>50000</v>
+      </c>
+      <c r="F20">
+        <v>-0.33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="5">
+        <v>50000</v>
+      </c>
+      <c r="F21" s="1">
+        <v>-0.41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="5">
+        <v>50000</v>
+      </c>
+      <c r="F22">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="5">
+        <v>50000</v>
+      </c>
+      <c r="F23">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="5">
+        <v>50000</v>
+      </c>
+      <c r="F24">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="5">
+        <v>50000</v>
+      </c>
+      <c r="F25">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="5">
+        <v>50000</v>
+      </c>
+      <c r="F26">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="5">
+        <v>50000</v>
+      </c>
+      <c r="F27">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="5">
+        <v>50000</v>
+      </c>
+      <c r="F28">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" s="5">
+        <v>50000</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="5">
+        <v>50000</v>
+      </c>
+      <c r="F30">
+        <v>-0.16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" s="5">
+        <v>50000</v>
+      </c>
+      <c r="F31">
+        <v>-0.13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" s="5">
+        <v>50000</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" s="5">
+        <v>50000</v>
+      </c>
+      <c r="F33">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" s="5">
+        <v>50000</v>
+      </c>
+      <c r="F34">
+        <v>-0.45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35" s="5">
+        <v>50000</v>
+      </c>
+      <c r="F35">
+        <v>-0.38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E36" s="5">
+        <v>50000</v>
+      </c>
+      <c r="F36">
+        <v>-0.35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E37" s="5">
+        <v>50000</v>
+      </c>
+      <c r="F37" s="1">
+        <v>-0.38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E38" s="5">
+        <v>50000</v>
+      </c>
+      <c r="F38">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E39" s="5">
+        <v>50000</v>
+      </c>
+      <c r="F39">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E40" s="5">
+        <v>50000</v>
+      </c>
+      <c r="F40">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E41" s="5">
+        <v>50000</v>
+      </c>
+      <c r="F41">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E42" s="5">
+        <v>50000</v>
+      </c>
+      <c r="F42">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E43" s="5">
+        <v>50000</v>
+      </c>
+      <c r="F43">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E44" s="5">
+        <v>50000</v>
+      </c>
+      <c r="F44">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E45" s="5">
+        <v>50000</v>
+      </c>
+      <c r="F45" s="1">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E46" s="5">
+        <v>50000</v>
+      </c>
+      <c r="F46">
+        <v>-0.13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E47" s="5">
+        <v>50000</v>
+      </c>
+      <c r="F47">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E48" s="5">
+        <v>50000</v>
+      </c>
+      <c r="F48">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E49" s="5">
+        <v>50000</v>
+      </c>
+      <c r="F49">
+        <v>0.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>